--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1484553.982247621</v>
+        <v>-1486277.392093649</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1521794.731933483</v>
+        <v>1521794.731933485</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>201.6571383924887</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="G2" t="n">
-        <v>201.6571383924887</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>140.3768814118112</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="W2" t="n">
-        <v>200.5915936365743</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>64.19627824331128</v>
+        <v>82.10611153417948</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>142.7949789484032</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2090721780278</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2090721780278</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>164.9737622052496</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.2090721780278</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.2090721780279</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>192.7718521661778</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>188.4733647153298</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>86.12049602088146</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.4805310238691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.5927928933795</v>
+        <v>362.5927928933794</v>
       </c>
       <c r="C11" t="n">
-        <v>345.1318430009064</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.5419928505819</v>
+        <v>334.5419928505818</v>
       </c>
       <c r="E11" t="n">
-        <v>361.7893213021607</v>
+        <v>361.7893213021606</v>
       </c>
       <c r="F11" t="n">
-        <v>386.7349969716104</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>392.7758551758357</v>
+        <v>392.7758551758356</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8998353051145</v>
+        <v>294.8998353051144</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.35499212378916</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.5118383580391</v>
+        <v>134.511838358039</v>
       </c>
       <c r="T11" t="n">
-        <v>29.6628264882219</v>
+        <v>192.5108143448648</v>
       </c>
       <c r="U11" t="n">
-        <v>231.0137374521995</v>
+        <v>64.96646779693694</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.6112097000337</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>329.0999199473118</v>
       </c>
       <c r="X11" t="n">
-        <v>349.590051908368</v>
+        <v>349.5900519083679</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.0968898859525</v>
+        <v>366.0968898859524</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.6909314118361</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>37.50357000133795</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.292913876468</v>
       </c>
       <c r="F13" t="n">
-        <v>125.2799992528302</v>
+        <v>125.2799992528301</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.52334208740114</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2248331300175</v>
       </c>
       <c r="T13" t="n">
-        <v>203.2318559506576</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>266.1196058879959</v>
+        <v>266.1196058879958</v>
       </c>
       <c r="V13" t="n">
-        <v>231.9965945537269</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.3819495664899</v>
+        <v>266.3819495664898</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>362.5927928933795</v>
       </c>
       <c r="C14" t="n">
-        <v>345.1318430009064</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>334.5419928505818</v>
+        <v>334.5419928505819</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>361.7893213021607</v>
       </c>
       <c r="F14" t="n">
-        <v>386.7349969716103</v>
+        <v>386.7349969716104</v>
       </c>
       <c r="G14" t="n">
-        <v>392.7758551758357</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8998353051144</v>
+        <v>294.8998353051145</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.35499212378926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.511838358039</v>
+        <v>134.5118383580391</v>
       </c>
       <c r="T14" t="n">
         <v>192.5108143448649</v>
       </c>
       <c r="U14" t="n">
-        <v>231.0137374521995</v>
+        <v>231.0137374521996</v>
       </c>
       <c r="V14" t="n">
         <v>307.6112097000338</v>
@@ -1670,10 +1670,10 @@
         <v>329.0999199473119</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>189.5836404573294</v>
       </c>
       <c r="Y14" t="n">
-        <v>277.9171455924909</v>
+        <v>366.0968898859525</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>147.1057723285267</v>
+        <v>147.1057723285268</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4744242481113</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>88.78865613147136</v>
       </c>
       <c r="F16" t="n">
-        <v>125.2799992528301</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.7797277844694</v>
       </c>
       <c r="H16" t="n">
-        <v>93.62965362346912</v>
+        <v>132.5710478991315</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1255091093159</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.2248331300176</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>266.1196058879959</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.9965945537269</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.3819495664899</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.4436045819937</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I17" t="n">
-        <v>38.49405148193723</v>
+        <v>38.49405148193719</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.6508977161871</v>
+        <v>74.65089771618705</v>
       </c>
       <c r="T17" t="n">
         <v>132.6498737030129</v>
@@ -1910,7 +1910,7 @@
         <v>289.7291112665159</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.2359492441005</v>
+        <v>306.2359492441004</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.82999076998421</v>
+        <v>99.82999076998416</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>87.2448316866747</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>68.61348360625922</v>
       </c>
       <c r="E19" t="n">
-        <v>44.61706829665646</v>
+        <v>66.43197323461604</v>
       </c>
       <c r="F19" t="n">
-        <v>65.41905861097815</v>
+        <v>65.41905861097811</v>
       </c>
       <c r="G19" t="n">
-        <v>86.91878714261736</v>
+        <v>86.9187871426173</v>
       </c>
       <c r="H19" t="n">
-        <v>72.71010725727947</v>
+        <v>20.40077951455203</v>
       </c>
       <c r="I19" t="n">
-        <v>43.2645684674639</v>
+        <v>43.26456846746385</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.17119225583823</v>
+        <v>49.17119225583819</v>
       </c>
       <c r="S19" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>143.3709153088056</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.7318522515275</v>
+        <v>302.7318522515274</v>
       </c>
       <c r="C20" t="n">
-        <v>285.2709023590545</v>
+        <v>285.2709023590544</v>
       </c>
       <c r="D20" t="n">
-        <v>274.6810522087299</v>
+        <v>274.6810522087298</v>
       </c>
       <c r="E20" t="n">
-        <v>301.9283806603087</v>
+        <v>301.9283806603086</v>
       </c>
       <c r="F20" t="n">
-        <v>326.8740563297584</v>
+        <v>326.8740563297583</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9149145339837</v>
+        <v>332.914914533984</v>
       </c>
       <c r="H20" t="n">
-        <v>235.0388946632625</v>
+        <v>235.0388946632624</v>
       </c>
       <c r="I20" t="n">
-        <v>38.49405148193729</v>
+        <v>38.49405148193716</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>74.65089771618716</v>
+        <v>74.65089771618702</v>
       </c>
       <c r="T20" t="n">
-        <v>132.649873703013</v>
+        <v>132.6498737030128</v>
       </c>
       <c r="U20" t="n">
-        <v>171.1527968103476</v>
+        <v>171.1527968103475</v>
       </c>
       <c r="V20" t="n">
-        <v>247.7502690581819</v>
+        <v>247.7502690581817</v>
       </c>
       <c r="W20" t="n">
-        <v>269.23897930546</v>
+        <v>269.2389793054598</v>
       </c>
       <c r="X20" t="n">
-        <v>289.729111266516</v>
+        <v>289.7291112665159</v>
       </c>
       <c r="Y20" t="n">
-        <v>306.2359492441005</v>
+        <v>306.2359492441004</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.3203893683806</v>
+        <v>99.82999076998414</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>87.24483168667467</v>
       </c>
       <c r="D22" t="n">
-        <v>68.61348360625932</v>
+        <v>68.61348360625919</v>
       </c>
       <c r="E22" t="n">
-        <v>66.43197323461614</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>65.41905861097821</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>86.91878714261728</v>
       </c>
       <c r="H22" t="n">
-        <v>72.71010725727952</v>
+        <v>72.71010725727939</v>
       </c>
       <c r="I22" t="n">
-        <v>43.26456846746395</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.17119225583829</v>
+        <v>46.61357233800382</v>
       </c>
       <c r="S22" t="n">
-        <v>125.3638924881656</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T22" t="n">
-        <v>143.3709153088056</v>
+        <v>143.3709153088055</v>
       </c>
       <c r="U22" t="n">
-        <v>206.2586652461439</v>
+        <v>206.2586652461438</v>
       </c>
       <c r="V22" t="n">
-        <v>172.135653911875</v>
+        <v>172.1356539118748</v>
       </c>
       <c r="W22" t="n">
-        <v>206.521008924638</v>
+        <v>206.5210089246378</v>
       </c>
       <c r="X22" t="n">
-        <v>145.7076659770841</v>
+        <v>145.707665977084</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.5826639401417</v>
+        <v>138.5826639401416</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>302.7318522515275</v>
       </c>
       <c r="C23" t="n">
-        <v>285.2709023590545</v>
+        <v>285.2709023590544</v>
       </c>
       <c r="D23" t="n">
         <v>274.6810522087299</v>
@@ -2327,7 +2327,7 @@
         <v>301.9283806603087</v>
       </c>
       <c r="F23" t="n">
-        <v>326.8740563297584</v>
+        <v>326.8740563297583</v>
       </c>
       <c r="G23" t="n">
         <v>332.9149145339837</v>
@@ -2336,7 +2336,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I23" t="n">
-        <v>38.49405148193728</v>
+        <v>38.49405148193723</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>74.65089771618716</v>
+        <v>74.65089771618709</v>
       </c>
       <c r="T23" t="n">
-        <v>132.649873703013</v>
+        <v>132.6498737030129</v>
       </c>
       <c r="U23" t="n">
-        <v>171.1527968103476</v>
+        <v>171.1527968103475</v>
       </c>
       <c r="V23" t="n">
-        <v>247.7502690581819</v>
+        <v>247.7502690581818</v>
       </c>
       <c r="W23" t="n">
-        <v>269.2389793054585</v>
+        <v>269.2389793054599</v>
       </c>
       <c r="X23" t="n">
-        <v>289.729111266516</v>
+        <v>289.7291112665159</v>
       </c>
       <c r="Y23" t="n">
         <v>306.2359492441005</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.82999076998426</v>
+        <v>67.86443651617454</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>87.24483168667474</v>
       </c>
       <c r="D25" t="n">
-        <v>68.61348360625932</v>
+        <v>68.61348360625927</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>66.43197323461608</v>
       </c>
       <c r="F25" t="n">
-        <v>41.42264330137431</v>
+        <v>65.41905861097815</v>
       </c>
       <c r="G25" t="n">
-        <v>86.9187871426174</v>
+        <v>86.91878714261735</v>
       </c>
       <c r="H25" t="n">
-        <v>72.71010725727952</v>
+        <v>72.71010725727946</v>
       </c>
       <c r="I25" t="n">
-        <v>43.26456846746395</v>
+        <v>43.26456846746389</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.17119225583828</v>
+        <v>49.17119225583822</v>
       </c>
       <c r="S25" t="n">
-        <v>125.3638924881656</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T25" t="n">
         <v>143.3709153088056</v>
@@ -2533,13 +2533,13 @@
         <v>206.2586652461439</v>
       </c>
       <c r="V25" t="n">
-        <v>172.135653911875</v>
+        <v>172.1356539118749</v>
       </c>
       <c r="W25" t="n">
-        <v>206.521008924638</v>
+        <v>206.5210089246379</v>
       </c>
       <c r="X25" t="n">
-        <v>145.7076659770841</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>138.5826639401417</v>
@@ -2573,7 +2573,7 @@
         <v>235.0388946632624</v>
       </c>
       <c r="I26" t="n">
-        <v>38.49405148193716</v>
+        <v>38.49405148193718</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.65089771618699</v>
+        <v>74.65089771618703</v>
       </c>
       <c r="T26" t="n">
-        <v>132.6498737030128</v>
+        <v>132.6498737030129</v>
       </c>
       <c r="U26" t="n">
         <v>171.1527968103475</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.82999076998412</v>
+        <v>99.82999076998415</v>
       </c>
       <c r="C28" t="n">
-        <v>87.24483168667466</v>
+        <v>87.24483168667469</v>
       </c>
       <c r="D28" t="n">
-        <v>68.61348360625918</v>
+        <v>22.79129522096148</v>
       </c>
       <c r="E28" t="n">
-        <v>66.431973234616</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65.41905861097807</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>86.91878714261726</v>
+        <v>86.91878714261729</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727939</v>
+        <v>72.7101072572794</v>
       </c>
       <c r="I28" t="n">
-        <v>43.26456846746381</v>
+        <v>43.26456846746383</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.17119225583814</v>
+        <v>49.17119225583816</v>
       </c>
       <c r="S28" t="n">
         <v>125.3638924881655</v>
@@ -2773,7 +2773,7 @@
         <v>172.1356539118748</v>
       </c>
       <c r="W28" t="n">
-        <v>28.84778869374558</v>
+        <v>206.5210089246378</v>
       </c>
       <c r="X28" t="n">
         <v>145.707665977084</v>
@@ -2795,13 +2795,13 @@
         <v>285.2709023590544</v>
       </c>
       <c r="D29" t="n">
-        <v>274.6810522087298</v>
+        <v>274.6810522087297</v>
       </c>
       <c r="E29" t="n">
         <v>301.9283806603086</v>
       </c>
       <c r="F29" t="n">
-        <v>326.8740563297583</v>
+        <v>326.8740563297582</v>
       </c>
       <c r="G29" t="n">
         <v>332.9149145339836</v>
@@ -2810,7 +2810,7 @@
         <v>235.0388946632624</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49405148193716</v>
+        <v>38.49405148193713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.65089771618705</v>
+        <v>74.65089771618699</v>
       </c>
       <c r="T29" t="n">
         <v>132.6498737030128</v>
       </c>
       <c r="U29" t="n">
-        <v>171.1527968103475</v>
+        <v>171.1527968103474</v>
       </c>
       <c r="V29" t="n">
         <v>247.7502690581817</v>
@@ -2855,7 +2855,7 @@
         <v>269.2389793054598</v>
       </c>
       <c r="X29" t="n">
-        <v>289.7291112665159</v>
+        <v>289.7291112665158</v>
       </c>
       <c r="Y29" t="n">
         <v>306.2359492441004</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.82999076998415</v>
+        <v>99.82999076998411</v>
       </c>
       <c r="C31" t="n">
-        <v>87.24483168667469</v>
+        <v>87.24483168667464</v>
       </c>
       <c r="D31" t="n">
-        <v>68.61348360625921</v>
+        <v>68.61348360625917</v>
       </c>
       <c r="E31" t="n">
-        <v>66.43197323461602</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>65.4190586109781</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>86.91878714261729</v>
+        <v>86.91878714261725</v>
       </c>
       <c r="H31" t="n">
-        <v>72.71010725727942</v>
+        <v>72.71010725727938</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26456846746384</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.17119225583817</v>
+        <v>49.17119225583813</v>
       </c>
       <c r="S31" t="n">
         <v>125.3638924881655</v>
       </c>
       <c r="T31" t="n">
-        <v>143.3709153088055</v>
+        <v>140.8132953909717</v>
       </c>
       <c r="U31" t="n">
         <v>206.2586652461438</v>
@@ -3010,7 +3010,7 @@
         <v>172.1356539118748</v>
       </c>
       <c r="W31" t="n">
-        <v>28.84778869374536</v>
+        <v>206.5210089246378</v>
       </c>
       <c r="X31" t="n">
         <v>145.707665977084</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.2793665869988</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C35" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D35" t="n">
-        <v>267.2285665442012</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E35" t="n">
-        <v>294.47589499578</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F35" t="n">
-        <v>319.4215706652296</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G35" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H35" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04156581740855</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.19841205165841</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T35" t="n">
-        <v>125.1973880384842</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U35" t="n">
         <v>163.7003111458189</v>
       </c>
       <c r="V35" t="n">
-        <v>240.2977833936531</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W35" t="n">
-        <v>261.7864936409312</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X35" t="n">
-        <v>282.2766256019872</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.37750510545553</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C37" t="n">
-        <v>79.79234602214606</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D37" t="n">
-        <v>61.16099794173059</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E37" t="n">
-        <v>58.9794875700874</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F37" t="n">
-        <v>57.96657294644947</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G37" t="n">
-        <v>79.46630147808868</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H37" t="n">
-        <v>65.25762159275079</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I37" t="n">
-        <v>35.81208280293522</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71870659130955</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S37" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T37" t="n">
-        <v>135.9184296442769</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U37" t="n">
-        <v>198.8061795816152</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V37" t="n">
-        <v>164.6831682473462</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W37" t="n">
-        <v>199.0685232601092</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X37" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.130178275613</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04156581740862</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.19841205165848</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T38" t="n">
         <v>125.1973880384843</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C40" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D40" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E40" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F40" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G40" t="n">
         <v>79.46630147808875</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71870659130962</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S40" t="n">
         <v>117.911406823637</v>
@@ -3758,7 +3758,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I41" t="n">
-        <v>31.04156581740864</v>
+        <v>31.04156581740862</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.19841205165849</v>
+        <v>67.19841205165798</v>
       </c>
       <c r="T41" t="n">
         <v>125.1973880384843</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.37750510545561</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C43" t="n">
-        <v>79.79234602214615</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D43" t="n">
-        <v>61.16099794173067</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E43" t="n">
-        <v>58.97948757008749</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F43" t="n">
-        <v>57.96657294644956</v>
+        <v>57.96657294644955</v>
       </c>
       <c r="G43" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H43" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I43" t="n">
-        <v>35.81208280293529</v>
+        <v>35.81208280293528</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71870659130963</v>
+        <v>41.71870659130961</v>
       </c>
       <c r="S43" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T43" t="n">
         <v>135.918429644277</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C44" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D44" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E44" t="n">
-        <v>294.4758949957802</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F44" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G44" t="n">
-        <v>325.4624288694552</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H44" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I44" t="n">
-        <v>31.04156581740868</v>
+        <v>31.0415658174086</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.19841205165854</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T44" t="n">
-        <v>125.1973880384844</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U44" t="n">
-        <v>163.700311145819</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V44" t="n">
-        <v>240.2977833936533</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W44" t="n">
-        <v>261.7864936409314</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X44" t="n">
-        <v>282.2766256019874</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.783463579572</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.37750510545565</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C46" t="n">
-        <v>79.79234602214619</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D46" t="n">
-        <v>61.16099794173071</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E46" t="n">
-        <v>58.97948757008753</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F46" t="n">
-        <v>57.96657294644778</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G46" t="n">
-        <v>79.46630147808879</v>
+        <v>79.46630147808871</v>
       </c>
       <c r="H46" t="n">
-        <v>65.25762159275091</v>
+        <v>65.25762159275084</v>
       </c>
       <c r="I46" t="n">
-        <v>35.81208280293534</v>
+        <v>35.81208280293526</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71870659130967</v>
+        <v>41.71870659130959</v>
       </c>
       <c r="S46" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T46" t="n">
-        <v>135.9184296442771</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U46" t="n">
-        <v>198.8061795816154</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V46" t="n">
-        <v>164.6831682473464</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W46" t="n">
-        <v>199.0685232601094</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X46" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.1301782756132</v>
+        <v>131.130178275613</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.5362194363499</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="C2" t="n">
-        <v>238.8421402520179</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="D2" t="n">
-        <v>238.8421402520179</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="E2" t="n">
-        <v>238.8421402520179</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8966395028145</v>
+        <v>185.4547006487311</v>
       </c>
       <c r="G2" t="n">
-        <v>28.20256031848245</v>
+        <v>169.9973900273826</v>
       </c>
       <c r="H2" t="n">
-        <v>28.20256031848245</v>
+        <v>28.2025603184824</v>
       </c>
       <c r="I2" t="n">
-        <v>28.20256031848245</v>
+        <v>28.2025603184824</v>
       </c>
       <c r="J2" t="n">
-        <v>16.1325710713991</v>
+        <v>16.13257107139905</v>
       </c>
       <c r="K2" t="n">
-        <v>119.1475769823215</v>
+        <v>16.13257107139905</v>
       </c>
       <c r="L2" t="n">
-        <v>168.4924141181281</v>
+        <v>196.2084226560576</v>
       </c>
       <c r="M2" t="n">
-        <v>368.1329811266919</v>
+        <v>368.1329811266903</v>
       </c>
       <c r="N2" t="n">
-        <v>567.7735481352557</v>
+        <v>567.7735481352536</v>
       </c>
       <c r="O2" t="n">
-        <v>716.9684982779038</v>
+        <v>716.9684982779016</v>
       </c>
       <c r="P2" t="n">
-        <v>806.6285535699548</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="Q2" t="n">
-        <v>796.5369382017277</v>
+        <v>796.5369382017255</v>
       </c>
       <c r="R2" t="n">
-        <v>645.153990786425</v>
+        <v>796.5369382017255</v>
       </c>
       <c r="S2" t="n">
-        <v>645.153990786425</v>
+        <v>796.5369382017255</v>
       </c>
       <c r="T2" t="n">
-        <v>645.153990786425</v>
+        <v>796.5369382017255</v>
       </c>
       <c r="U2" t="n">
-        <v>645.153990786425</v>
+        <v>796.5369382017255</v>
       </c>
       <c r="V2" t="n">
-        <v>645.153990786425</v>
+        <v>592.8428590173941</v>
       </c>
       <c r="W2" t="n">
-        <v>442.5362194363499</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="X2" t="n">
-        <v>442.5362194363499</v>
+        <v>389.1487798330626</v>
       </c>
       <c r="Y2" t="n">
-        <v>442.5362194363499</v>
+        <v>389.1487798330626</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="C3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="D3" t="n">
-        <v>354.3380198203552</v>
+        <v>657.6941439087013</v>
       </c>
       <c r="E3" t="n">
-        <v>195.1005648148997</v>
+        <v>498.4566889032458</v>
       </c>
       <c r="F3" t="n">
-        <v>195.1005648148997</v>
+        <v>351.9221309301308</v>
       </c>
       <c r="G3" t="n">
-        <v>195.1005648148997</v>
+        <v>213.1913055127463</v>
       </c>
       <c r="H3" t="n">
-        <v>81.73142922247904</v>
+        <v>99.82216992032566</v>
       </c>
       <c r="I3" t="n">
-        <v>16.88670372418481</v>
+        <v>16.88670372418477</v>
       </c>
       <c r="J3" t="n">
-        <v>16.1325710713991</v>
+        <v>16.13257107139905</v>
       </c>
       <c r="K3" t="n">
         <v>141.4901311292365</v>
       </c>
       <c r="L3" t="n">
-        <v>341.1306981378003</v>
+        <v>141.4901311292365</v>
       </c>
       <c r="M3" t="n">
-        <v>341.1306981378003</v>
+        <v>341.1306981377998</v>
       </c>
       <c r="N3" t="n">
-        <v>354.9499504347108</v>
+        <v>540.771265146363</v>
       </c>
       <c r="O3" t="n">
-        <v>554.5905174432746</v>
+        <v>554.5905174432723</v>
       </c>
       <c r="P3" t="n">
-        <v>737.2339950566254</v>
+        <v>737.2339950566233</v>
       </c>
       <c r="Q3" t="n">
-        <v>806.6285535699548</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="R3" t="n">
-        <v>705.4590241228404</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="S3" t="n">
-        <v>705.4590241228404</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="T3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="U3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="V3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="W3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="X3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.2724294816065</v>
+        <v>806.6285535699526</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="C4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="D4" t="n">
-        <v>150.6648615616699</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="E4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="F4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="G4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="H4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="I4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="J4" t="n">
-        <v>16.1325710713991</v>
+        <v>38.62700725915951</v>
       </c>
       <c r="K4" t="n">
-        <v>16.1325710713991</v>
+        <v>16.13257107139905</v>
       </c>
       <c r="L4" t="n">
-        <v>43.44669607911207</v>
+        <v>43.44669607911203</v>
       </c>
       <c r="M4" t="n">
-        <v>82.63473427133425</v>
+        <v>82.63473427133421</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3255849267706</v>
+        <v>126.3255849267705</v>
       </c>
       <c r="O4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="P4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="R4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="S4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="T4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="U4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="V4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="W4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="X4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.6648615616699</v>
+        <v>150.6648615616698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.7519113405737</v>
+        <v>51.4495263918776</v>
       </c>
       <c r="C5" t="n">
-        <v>457.7519113405737</v>
+        <v>51.4495263918776</v>
       </c>
       <c r="D5" t="n">
-        <v>457.7519113405737</v>
+        <v>51.4495263918776</v>
       </c>
       <c r="E5" t="n">
-        <v>457.7519113405737</v>
+        <v>51.4495263918776</v>
       </c>
       <c r="F5" t="n">
-        <v>243.3993131809496</v>
+        <v>44.50402564267412</v>
       </c>
       <c r="G5" t="n">
-        <v>29.04671502132557</v>
+        <v>29.04671502132559</v>
       </c>
       <c r="H5" t="n">
-        <v>29.04671502132557</v>
+        <v>29.04671502132559</v>
       </c>
       <c r="I5" t="n">
-        <v>29.04671502132557</v>
+        <v>29.04671502132559</v>
       </c>
       <c r="J5" t="n">
-        <v>16.97672577424222</v>
+        <v>16.97672577424223</v>
       </c>
       <c r="K5" t="n">
-        <v>16.97672577424222</v>
+        <v>119.9917316851646</v>
       </c>
       <c r="L5" t="n">
-        <v>197.0525773589008</v>
+        <v>300.0675832698232</v>
       </c>
       <c r="M5" t="n">
-        <v>404.1267610701728</v>
+        <v>510.1545647260708</v>
       </c>
       <c r="N5" t="n">
-        <v>609.9812832774121</v>
+        <v>716.0090869333101</v>
       </c>
       <c r="O5" t="n">
-        <v>759.1762334200602</v>
+        <v>759.1762334200606</v>
       </c>
       <c r="P5" t="n">
-        <v>848.8362887121111</v>
+        <v>848.8362887121116</v>
       </c>
       <c r="Q5" t="n">
-        <v>838.7446733438841</v>
+        <v>838.7446733438845</v>
       </c>
       <c r="R5" t="n">
-        <v>838.7446733438841</v>
+        <v>838.7446733438845</v>
       </c>
       <c r="S5" t="n">
-        <v>838.7446733438841</v>
+        <v>838.7446733438845</v>
       </c>
       <c r="T5" t="n">
-        <v>838.7446733438841</v>
+        <v>624.3920751842604</v>
       </c>
       <c r="U5" t="n">
-        <v>838.7446733438841</v>
+        <v>624.3920751842604</v>
       </c>
       <c r="V5" t="n">
-        <v>838.7446733438841</v>
+        <v>624.3920751842604</v>
       </c>
       <c r="W5" t="n">
-        <v>672.1045095001977</v>
+        <v>624.3920751842604</v>
       </c>
       <c r="X5" t="n">
-        <v>457.7519113405737</v>
+        <v>410.0394770246363</v>
       </c>
       <c r="Y5" t="n">
-        <v>457.7519113405737</v>
+        <v>195.6868788650122</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.4835168509985</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="C6" t="n">
-        <v>108.0304875698715</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="D6" t="n">
-        <v>108.0304875698715</v>
+        <v>302.9962418175274</v>
       </c>
       <c r="E6" t="n">
-        <v>108.0304875698715</v>
+        <v>302.9962418175274</v>
       </c>
       <c r="F6" t="n">
-        <v>108.0304875698715</v>
+        <v>156.4616838444124</v>
       </c>
       <c r="G6" t="n">
-        <v>108.0304875698715</v>
+        <v>17.73085842702795</v>
       </c>
       <c r="H6" t="n">
-        <v>108.0304875698715</v>
+        <v>17.73085842702795</v>
       </c>
       <c r="I6" t="n">
-        <v>17.73085842702794</v>
+        <v>17.73085842702795</v>
       </c>
       <c r="J6" t="n">
-        <v>16.97672577424222</v>
+        <v>16.97672577424223</v>
       </c>
       <c r="K6" t="n">
         <v>142.3342858320796</v>
       </c>
       <c r="L6" t="n">
-        <v>142.3342858320796</v>
+        <v>352.4212672883273</v>
       </c>
       <c r="M6" t="n">
-        <v>352.4212672883272</v>
+        <v>562.5082487445749</v>
       </c>
       <c r="N6" t="n">
-        <v>386.7112711291834</v>
+        <v>562.5082487445749</v>
       </c>
       <c r="O6" t="n">
-        <v>596.7982525854309</v>
+        <v>666.1928110987608</v>
       </c>
       <c r="P6" t="n">
-        <v>779.4417301987818</v>
+        <v>848.8362887121116</v>
       </c>
       <c r="Q6" t="n">
-        <v>848.8362887121111</v>
+        <v>848.8362887121116</v>
       </c>
       <c r="R6" t="n">
-        <v>848.8362887121111</v>
+        <v>848.8362887121116</v>
       </c>
       <c r="S6" t="n">
-        <v>848.8362887121111</v>
+        <v>848.8362887121116</v>
       </c>
       <c r="T6" t="n">
-        <v>848.8362887121111</v>
+        <v>646.6496940708776</v>
       </c>
       <c r="U6" t="n">
-        <v>848.8362887121111</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="V6" t="n">
-        <v>848.8362887121111</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="W6" t="n">
-        <v>848.8362887121111</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="X6" t="n">
-        <v>658.4591526360205</v>
+        <v>451.9306514787787</v>
       </c>
       <c r="Y6" t="n">
-        <v>450.6988538710665</v>
+        <v>451.9306514787787</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="C7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="D7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="E7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="F7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="G7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="H7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="I7" t="n">
-        <v>16.97672577424222</v>
+        <v>133.773364100056</v>
       </c>
       <c r="J7" t="n">
-        <v>16.97672577424222</v>
+        <v>39.4711619620027</v>
       </c>
       <c r="K7" t="n">
-        <v>16.97672577424222</v>
+        <v>16.97672577424223</v>
       </c>
       <c r="L7" t="n">
-        <v>44.2908507819552</v>
+        <v>44.29085078195521</v>
       </c>
       <c r="M7" t="n">
-        <v>83.47888897417738</v>
+        <v>83.47888897417739</v>
       </c>
       <c r="N7" t="n">
         <v>127.1697396296137</v>
@@ -4741,34 +4741,34 @@
         <v>151.509016264513</v>
       </c>
       <c r="P7" t="n">
-        <v>151.509016264513</v>
+        <v>148.7600862290519</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="R7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="S7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="T7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="U7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="V7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="W7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="X7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.509016264513</v>
+        <v>133.773364100056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F8" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G8" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667.4527462414319</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>667.4527462414319</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>667.4527462414319</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2211.238102809661</v>
+        <v>1571.327145386703</v>
       </c>
       <c r="C11" t="n">
-        <v>1862.620079576422</v>
+        <v>1571.327145386703</v>
       </c>
       <c r="D11" t="n">
-        <v>1524.698874676844</v>
+        <v>1233.405940487126</v>
       </c>
       <c r="E11" t="n">
-        <v>1159.255115785772</v>
+        <v>867.9621815960543</v>
       </c>
       <c r="F11" t="n">
-        <v>768.6137047033377</v>
+        <v>867.9621815960543</v>
       </c>
       <c r="G11" t="n">
-        <v>371.8704166469383</v>
+        <v>471.2188935396546</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266207</v>
+        <v>173.340272019337</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266207</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403596</v>
+        <v>262.6316941403569</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160405</v>
+        <v>666.0988071604023</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406604</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389916</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449762</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.09874921684</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556134</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331035</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331035</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.719212535036</v>
+        <v>3563.719212535033</v>
       </c>
       <c r="T11" t="n">
-        <v>3533.756761536832</v>
+        <v>3369.263844509917</v>
       </c>
       <c r="U11" t="n">
-        <v>3300.409551989156</v>
+        <v>3303.641149765537</v>
       </c>
       <c r="V11" t="n">
-        <v>3300.409551989156</v>
+        <v>2992.92275612914</v>
       </c>
       <c r="W11" t="n">
-        <v>3300.409551989156</v>
+        <v>2660.498594566198</v>
       </c>
       <c r="X11" t="n">
-        <v>2947.288287435249</v>
+        <v>2307.377330012291</v>
       </c>
       <c r="Y11" t="n">
-        <v>2577.493449166609</v>
+        <v>1937.582491743652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2030.666383316611</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>1856.213354035484</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>1707.278944374233</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>1548.041489368777</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>1401.506931395662</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>1264.065533754884</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>1163.149555899689</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I12" t="n">
-        <v>1117.244698890005</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J12" t="n">
-        <v>1117.244698890005</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K12" t="n">
-        <v>1446.673103195815</v>
+        <v>522.0794512893261</v>
       </c>
       <c r="L12" t="n">
-        <v>1951.034643061933</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M12" t="n">
-        <v>2504.792296242834</v>
+        <v>1643.486573704921</v>
       </c>
       <c r="N12" t="n">
-        <v>2703.449037895498</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O12" t="n">
-        <v>3252.885046648221</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P12" t="n">
-        <v>3676.852815129058</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q12" t="n">
-        <v>3699.589756331035</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>3678.477856733222</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>3529.011067595857</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>3332.021771755944</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>3103.88298426711</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>2868.730876035368</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>2614.493519307166</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>2406.642019101633</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>2198.881720336679</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238.4196428581036</v>
+        <v>329.6445781737916</v>
       </c>
       <c r="C13" t="n">
-        <v>238.4196428581036</v>
+        <v>329.6445781737916</v>
       </c>
       <c r="D13" t="n">
-        <v>200.5372489173582</v>
+        <v>329.6445781737916</v>
       </c>
       <c r="E13" t="n">
-        <v>200.5372489173582</v>
+        <v>202.0759782985714</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266207</v>
+        <v>75.53052450783395</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266207</v>
+        <v>75.53052450783395</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266207</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266207</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J13" t="n">
-        <v>76.41254994606943</v>
+        <v>76.41254994606949</v>
       </c>
       <c r="K13" t="n">
-        <v>197.4001178240793</v>
+        <v>197.4001178240794</v>
       </c>
       <c r="L13" t="n">
-        <v>402.1727510072977</v>
+        <v>402.1727510072979</v>
       </c>
       <c r="M13" t="n">
-        <v>627.3819900089358</v>
+        <v>627.381990008936</v>
       </c>
       <c r="N13" t="n">
-        <v>853.1449931274401</v>
+        <v>853.1449931274404</v>
       </c>
       <c r="O13" t="n">
         <v>1047.179526798439</v>
@@ -5224,25 +5224,25 @@
         <v>1215.924699382215</v>
       </c>
       <c r="S13" t="n">
-        <v>1215.924699382215</v>
+        <v>1028.828908341794</v>
       </c>
       <c r="T13" t="n">
-        <v>1010.639996401752</v>
+        <v>1028.828908341794</v>
       </c>
       <c r="U13" t="n">
-        <v>741.8323136866052</v>
+        <v>760.0212256266462</v>
       </c>
       <c r="V13" t="n">
-        <v>507.4923191878911</v>
+        <v>760.0212256266462</v>
       </c>
       <c r="W13" t="n">
-        <v>238.4196428581036</v>
+        <v>490.9485492968585</v>
       </c>
       <c r="X13" t="n">
-        <v>238.4196428581036</v>
+        <v>490.9485492968585</v>
       </c>
       <c r="Y13" t="n">
-        <v>238.4196428581036</v>
+        <v>490.9485492968585</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.794343918589</v>
+        <v>1565.225268412738</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.17632068535</v>
+        <v>1565.225268412738</v>
       </c>
       <c r="D14" t="n">
-        <v>1159.255115785772</v>
+        <v>1227.304063513161</v>
       </c>
       <c r="E14" t="n">
-        <v>1159.255115785772</v>
+        <v>861.8603046220896</v>
       </c>
       <c r="F14" t="n">
-        <v>768.613704703338</v>
+        <v>471.2188935396548</v>
       </c>
       <c r="G14" t="n">
-        <v>371.8704166469383</v>
+        <v>471.2188935396548</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662066</v>
+        <v>173.3402720193371</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403569</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604023</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406601</v>
@@ -5300,28 +5300,28 @@
         <v>3699.589756331032</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S14" t="n">
-        <v>3563.719212535034</v>
+        <v>3563.719212535033</v>
       </c>
       <c r="T14" t="n">
-        <v>3369.263844509918</v>
+        <v>3369.263844509917</v>
       </c>
       <c r="U14" t="n">
         <v>3135.916634962241</v>
       </c>
       <c r="V14" t="n">
-        <v>2825.198241325843</v>
+        <v>2825.198241325842</v>
       </c>
       <c r="W14" t="n">
-        <v>2492.774079762902</v>
+        <v>2492.774079762901</v>
       </c>
       <c r="X14" t="n">
-        <v>2492.774079762902</v>
+        <v>2301.275453038326</v>
       </c>
       <c r="Y14" t="n">
-        <v>2212.049690275538</v>
+        <v>1931.480614769687</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K15" t="n">
-        <v>141.5996147899777</v>
+        <v>522.0794512893261</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560961</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.506504123201</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.712196375983</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O15" t="n">
-        <v>2509.148205128706</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.33685256765</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>443.7043458385661</v>
+        <v>828.3808229054353</v>
       </c>
       <c r="C16" t="n">
-        <v>295.112656617832</v>
+        <v>679.789133684701</v>
       </c>
       <c r="D16" t="n">
-        <v>295.112656617832</v>
+        <v>550.016987979538</v>
       </c>
       <c r="E16" t="n">
-        <v>295.112656617832</v>
+        <v>460.3314767356275</v>
       </c>
       <c r="F16" t="n">
-        <v>168.5672028270945</v>
+        <v>460.3314767356275</v>
       </c>
       <c r="G16" t="n">
-        <v>168.5672028270945</v>
+        <v>312.0691254381837</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662066</v>
+        <v>178.1589760451216</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J16" t="n">
-        <v>76.41254994606948</v>
+        <v>76.4125499460693</v>
       </c>
       <c r="K16" t="n">
-        <v>197.4001178240793</v>
+        <v>197.4001178240791</v>
       </c>
       <c r="L16" t="n">
-        <v>402.1727510072978</v>
+        <v>402.1727510072975</v>
       </c>
       <c r="M16" t="n">
-        <v>627.3819900089359</v>
+        <v>627.3819900089355</v>
       </c>
       <c r="N16" t="n">
-        <v>853.1449931274402</v>
+        <v>853.1449931274399</v>
       </c>
       <c r="O16" t="n">
         <v>1047.179526798439</v>
       </c>
       <c r="P16" t="n">
-        <v>1192.566741679455</v>
+        <v>1192.566741679454</v>
       </c>
       <c r="Q16" t="n">
-        <v>1215.924699382215</v>
+        <v>1215.924699382214</v>
       </c>
       <c r="R16" t="n">
-        <v>1215.924699382215</v>
+        <v>1215.924699382214</v>
       </c>
       <c r="S16" t="n">
-        <v>1215.924699382215</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="T16" t="n">
-        <v>1215.924699382215</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="U16" t="n">
-        <v>947.1170166670679</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="V16" t="n">
-        <v>712.7770221683538</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="W16" t="n">
-        <v>443.7043458385661</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="X16" t="n">
-        <v>443.7043458385661</v>
+        <v>1028.828908341793</v>
       </c>
       <c r="Y16" t="n">
-        <v>443.7043458385661</v>
+        <v>828.3808229054353</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1887.327403446859</v>
+        <v>1887.327403446858</v>
       </c>
       <c r="C17" t="n">
-        <v>1599.174976821551</v>
+        <v>1599.17497682155</v>
       </c>
       <c r="D17" t="n">
         <v>1321.719368529904</v>
@@ -5501,16 +5501,16 @@
         <v>1016.741206246764</v>
       </c>
       <c r="F17" t="n">
-        <v>686.5653917722607</v>
+        <v>686.5653917722605</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2877003237923</v>
+        <v>350.2877003237922</v>
       </c>
       <c r="H17" t="n">
-        <v>112.8746754114057</v>
+        <v>112.8746754114059</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J17" t="n">
         <v>262.631694140357</v>
@@ -5519,10 +5519,10 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N17" t="n">
         <v>2477.93754444976</v>
@@ -5531,13 +5531,13 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S17" t="n">
         <v>3624.184809142965</v>
@@ -5546,19 +5546,19 @@
         <v>3490.19503772578</v>
       </c>
       <c r="U17" t="n">
-        <v>3317.313424786036</v>
+        <v>3317.313424786035</v>
       </c>
       <c r="V17" t="n">
-        <v>3067.06062775757</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W17" t="n">
-        <v>2795.10206280256</v>
+        <v>2795.102062802559</v>
       </c>
       <c r="X17" t="n">
-        <v>2502.446394856584</v>
+        <v>2502.446394856583</v>
       </c>
       <c r="Y17" t="n">
-        <v>2193.117153195876</v>
+        <v>2193.117153195875</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J18" t="n">
         <v>192.6510469835163</v>
@@ -5598,19 +5598,19 @@
         <v>522.0794512893261</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.440991155445</v>
+        <v>659.30904930502</v>
       </c>
       <c r="M18" t="n">
-        <v>1205.938327510049</v>
+        <v>838.8063856596248</v>
       </c>
       <c r="N18" t="n">
-        <v>1660.196134132113</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.33685256765</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.0822898488382</v>
+        <v>516.7124842813292</v>
       </c>
       <c r="C19" t="n">
-        <v>390.0822898488382</v>
+        <v>428.5863916685265</v>
       </c>
       <c r="D19" t="n">
-        <v>390.0822898488382</v>
+        <v>359.2798425712949</v>
       </c>
       <c r="E19" t="n">
-        <v>345.0145440946397</v>
+        <v>292.1768393040059</v>
       </c>
       <c r="F19" t="n">
-        <v>278.9346869118335</v>
+        <v>226.0969821211997</v>
       </c>
       <c r="G19" t="n">
-        <v>191.137932222321</v>
+        <v>138.3002274316873</v>
       </c>
       <c r="H19" t="n">
-        <v>117.6933794371903</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J19" t="n">
-        <v>135.6748811815028</v>
+        <v>135.674881181503</v>
       </c>
       <c r="K19" t="n">
-        <v>315.9247802949462</v>
+        <v>315.9247802949463</v>
       </c>
       <c r="L19" t="n">
-        <v>579.9597447135981</v>
+        <v>579.9597447135982</v>
       </c>
       <c r="M19" t="n">
-        <v>864.4313149506695</v>
+        <v>864.4313149506697</v>
       </c>
       <c r="N19" t="n">
-        <v>1149.456649304607</v>
+        <v>1149.456649304608</v>
       </c>
       <c r="O19" t="n">
         <v>1402.75351421104</v>
@@ -5692,31 +5692,31 @@
         <v>1607.403060327489</v>
       </c>
       <c r="Q19" t="n">
-        <v>1690.023349265682</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="R19" t="n">
-        <v>1640.355478300189</v>
+        <v>1640.35547830019</v>
       </c>
       <c r="S19" t="n">
-        <v>1513.725283867699</v>
+        <v>1640.35547830019</v>
       </c>
       <c r="T19" t="n">
-        <v>1368.906177495168</v>
+        <v>1495.536371927659</v>
       </c>
       <c r="U19" t="n">
-        <v>1160.564091387952</v>
+        <v>1287.194285820443</v>
       </c>
       <c r="V19" t="n">
-        <v>986.6896934971694</v>
+        <v>1113.31988792966</v>
       </c>
       <c r="W19" t="n">
-        <v>778.0826137753129</v>
+        <v>904.7128082078038</v>
       </c>
       <c r="X19" t="n">
-        <v>630.9031531923997</v>
+        <v>757.5333476248907</v>
       </c>
       <c r="Y19" t="n">
-        <v>490.9206643639737</v>
+        <v>617.5508587964648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1887.327403446859</v>
+        <v>1887.327403446858</v>
       </c>
       <c r="C20" t="n">
-        <v>1599.174976821551</v>
+        <v>1599.17497682155</v>
       </c>
       <c r="D20" t="n">
         <v>1321.719368529904</v>
@@ -5738,16 +5738,16 @@
         <v>1016.741206246764</v>
       </c>
       <c r="F20" t="n">
-        <v>686.5653917722607</v>
+        <v>686.5653917722606</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2877003237923</v>
+        <v>350.2877003237919</v>
       </c>
       <c r="H20" t="n">
-        <v>112.8746754114058</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J20" t="n">
         <v>262.631694140357</v>
@@ -5768,13 +5768,13 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S20" t="n">
         <v>3624.184809142965</v>
@@ -5783,19 +5783,19 @@
         <v>3490.19503772578</v>
       </c>
       <c r="U20" t="n">
-        <v>3317.313424786036</v>
+        <v>3317.313424786035</v>
       </c>
       <c r="V20" t="n">
-        <v>3067.060627757569</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W20" t="n">
         <v>2795.102062802559</v>
       </c>
       <c r="X20" t="n">
-        <v>2502.446394856584</v>
+        <v>2502.446394856583</v>
       </c>
       <c r="Y20" t="n">
-        <v>2193.117153195876</v>
+        <v>2193.117153195875</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J21" t="n">
         <v>192.6510469835163</v>
@@ -5835,19 +5835,19 @@
         <v>522.0794512893261</v>
       </c>
       <c r="L21" t="n">
-        <v>659.30904930502</v>
+        <v>989.4402867501977</v>
       </c>
       <c r="M21" t="n">
-        <v>1299.854398772125</v>
+        <v>1168.937623104802</v>
       </c>
       <c r="N21" t="n">
-        <v>1973.060091024907</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.33685256765</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.6273417696481</v>
+        <v>392.665744311298</v>
       </c>
       <c r="C22" t="n">
-        <v>393.6273417696481</v>
+        <v>304.5396516984953</v>
       </c>
       <c r="D22" t="n">
-        <v>324.3207926724164</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="E22" t="n">
-        <v>257.2177894051274</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="F22" t="n">
-        <v>191.1379322223211</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="G22" t="n">
-        <v>191.1379322223211</v>
+        <v>147.4363479117513</v>
       </c>
       <c r="H22" t="n">
-        <v>117.6933794371903</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J22" t="n">
-        <v>135.6748811815028</v>
+        <v>135.674881181503</v>
       </c>
       <c r="K22" t="n">
-        <v>315.9247802949461</v>
+        <v>315.9247802949462</v>
       </c>
       <c r="L22" t="n">
-        <v>579.959744713598</v>
+        <v>579.9597447135981</v>
       </c>
       <c r="M22" t="n">
         <v>864.4313149506695</v>
@@ -5926,34 +5926,34 @@
         <v>1402.75351421104</v>
       </c>
       <c r="P22" t="n">
-        <v>1607.403060327489</v>
+        <v>1607.40306032749</v>
       </c>
       <c r="Q22" t="n">
-        <v>1690.023349265682</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="R22" t="n">
-        <v>1640.355478300189</v>
+        <v>1642.938932762649</v>
       </c>
       <c r="S22" t="n">
-        <v>1513.725283867698</v>
+        <v>1516.308738330158</v>
       </c>
       <c r="T22" t="n">
-        <v>1368.906177495167</v>
+        <v>1371.489631957628</v>
       </c>
       <c r="U22" t="n">
-        <v>1160.564091387951</v>
+        <v>1163.147545850412</v>
       </c>
       <c r="V22" t="n">
-        <v>986.6896934971683</v>
+        <v>989.2731479596292</v>
       </c>
       <c r="W22" t="n">
-        <v>778.0826137753116</v>
+        <v>780.6660682377728</v>
       </c>
       <c r="X22" t="n">
-        <v>630.9031531923983</v>
+        <v>633.4866076548597</v>
       </c>
       <c r="Y22" t="n">
-        <v>490.9206643639719</v>
+        <v>493.5041188264335</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1887.327403446859</v>
+        <v>1887.327403446858</v>
       </c>
       <c r="C23" t="n">
-        <v>1599.174976821551</v>
+        <v>1599.17497682155</v>
       </c>
       <c r="D23" t="n">
         <v>1321.719368529904</v>
@@ -5975,43 +5975,43 @@
         <v>1016.741206246764</v>
       </c>
       <c r="F23" t="n">
-        <v>686.5653917722607</v>
+        <v>686.5653917722602</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2877003237922</v>
+        <v>350.2877003237918</v>
       </c>
       <c r="H23" t="n">
-        <v>112.8746754114058</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I23" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403575</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604028</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N23" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O23" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P23" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q23" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R23" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S23" t="n">
         <v>3624.184809142965</v>
@@ -6023,10 +6023,10 @@
         <v>3317.313424786035</v>
       </c>
       <c r="V23" t="n">
-        <v>3067.060627757568</v>
+        <v>3067.060627757569</v>
       </c>
       <c r="W23" t="n">
-        <v>2795.10206280256</v>
+        <v>2795.102062802559</v>
       </c>
       <c r="X23" t="n">
         <v>2502.446394856584</v>
@@ -6063,7 +6063,7 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I24" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J24" t="n">
         <v>192.6510469835163</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.0822898488373</v>
+        <v>569.5501890719631</v>
       </c>
       <c r="C25" t="n">
-        <v>390.0822898488373</v>
+        <v>481.4240964591604</v>
       </c>
       <c r="D25" t="n">
-        <v>320.7757407516057</v>
+        <v>412.1175473619288</v>
       </c>
       <c r="E25" t="n">
-        <v>320.7757407516057</v>
+        <v>345.0145440946397</v>
       </c>
       <c r="F25" t="n">
-        <v>278.9346869118336</v>
+        <v>278.9346869118335</v>
       </c>
       <c r="G25" t="n">
-        <v>191.1379322223211</v>
+        <v>191.137932222321</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6933794371903</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J25" t="n">
-        <v>135.6748811815028</v>
+        <v>135.6748811815029</v>
       </c>
       <c r="K25" t="n">
-        <v>315.9247802949461</v>
+        <v>315.9247802949462</v>
       </c>
       <c r="L25" t="n">
         <v>579.959744713598</v>
       </c>
       <c r="M25" t="n">
-        <v>864.4313149506693</v>
+        <v>864.4313149506694</v>
       </c>
       <c r="N25" t="n">
         <v>1149.456649304607</v>
@@ -6172,7 +6172,7 @@
         <v>1640.355478300189</v>
       </c>
       <c r="S25" t="n">
-        <v>1513.725283867698</v>
+        <v>1513.725283867699</v>
       </c>
       <c r="T25" t="n">
         <v>1368.906177495168</v>
@@ -6181,16 +6181,16 @@
         <v>1160.564091387952</v>
       </c>
       <c r="V25" t="n">
-        <v>986.6896934971687</v>
+        <v>986.6896934971689</v>
       </c>
       <c r="W25" t="n">
-        <v>778.0826137753121</v>
+        <v>778.0826137753129</v>
       </c>
       <c r="X25" t="n">
-        <v>630.9031531923988</v>
+        <v>778.0826137753129</v>
       </c>
       <c r="Y25" t="n">
-        <v>490.9206643639728</v>
+        <v>638.1001249468869</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1887.327403446858</v>
+        <v>1887.327403446857</v>
       </c>
       <c r="C26" t="n">
         <v>1599.17497682155</v>
       </c>
       <c r="D26" t="n">
-        <v>1321.719368529904</v>
+        <v>1321.719368529903</v>
       </c>
       <c r="E26" t="n">
-        <v>1016.741206246764</v>
+        <v>1016.741206246763</v>
       </c>
       <c r="F26" t="n">
-        <v>686.5653917722605</v>
+        <v>686.56539177226</v>
       </c>
       <c r="G26" t="n">
-        <v>350.2877003237921</v>
+        <v>350.2877003237923</v>
       </c>
       <c r="H26" t="n">
-        <v>112.8746754114059</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I26" t="n">
         <v>73.99179512662064</v>
       </c>
       <c r="J26" t="n">
-        <v>262.6316941403571</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K26" t="n">
         <v>666.0988071604024</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N26" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O26" t="n">
-        <v>3025.098749216836</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q26" t="n">
         <v>3699.589756331032</v>
@@ -6251,10 +6251,10 @@
         <v>3699.589756331032</v>
       </c>
       <c r="S26" t="n">
-        <v>3624.184809142964</v>
+        <v>3624.184809142965</v>
       </c>
       <c r="T26" t="n">
-        <v>3490.195037725779</v>
+        <v>3490.19503772578</v>
       </c>
       <c r="U26" t="n">
         <v>3317.313424786034</v>
@@ -6266,7 +6266,7 @@
         <v>2795.102062802558</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.446394856583</v>
+        <v>2502.446394856582</v>
       </c>
       <c r="Y26" t="n">
         <v>2193.117153195875</v>
@@ -6312,7 +6312,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1205.938327510049</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N27" t="n">
         <v>1452.219619273623</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.5501890719624</v>
+        <v>390.0822898488384</v>
       </c>
       <c r="C28" t="n">
-        <v>481.4240964591597</v>
+        <v>301.9561972360357</v>
       </c>
       <c r="D28" t="n">
-        <v>412.1175473619282</v>
+        <v>278.9346869118333</v>
       </c>
       <c r="E28" t="n">
-        <v>345.0145440946393</v>
+        <v>278.9346869118333</v>
       </c>
       <c r="F28" t="n">
-        <v>278.9346869118332</v>
+        <v>278.9346869118333</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1379322223208</v>
+        <v>191.1379322223209</v>
       </c>
       <c r="H28" t="n">
-        <v>117.6933794371901</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I28" t="n">
         <v>73.99179512662064</v>
       </c>
       <c r="J28" t="n">
-        <v>135.674881181503</v>
+        <v>135.6748811815029</v>
       </c>
       <c r="K28" t="n">
-        <v>315.9247802949465</v>
+        <v>315.9247802949463</v>
       </c>
       <c r="L28" t="n">
-        <v>579.9597447135982</v>
+        <v>579.9597447135983</v>
       </c>
       <c r="M28" t="n">
         <v>864.4313149506697</v>
@@ -6400,7 +6400,7 @@
         <v>1402.75351421104</v>
       </c>
       <c r="P28" t="n">
-        <v>1607.40306032749</v>
+        <v>1607.403060327489</v>
       </c>
       <c r="Q28" t="n">
         <v>1690.023349265683</v>
@@ -6409,25 +6409,25 @@
         <v>1640.35547830019</v>
       </c>
       <c r="S28" t="n">
-        <v>1513.7252838677</v>
+        <v>1513.725283867699</v>
       </c>
       <c r="T28" t="n">
-        <v>1368.906177495169</v>
+        <v>1368.906177495168</v>
       </c>
       <c r="U28" t="n">
-        <v>1160.564091387953</v>
+        <v>1160.564091387952</v>
       </c>
       <c r="V28" t="n">
-        <v>986.6896934971702</v>
+        <v>986.6896934971693</v>
       </c>
       <c r="W28" t="n">
-        <v>957.5505129984369</v>
+        <v>778.0826137753129</v>
       </c>
       <c r="X28" t="n">
-        <v>810.3710524155238</v>
+        <v>630.9031531923998</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.3885635870979</v>
+        <v>490.9206643639739</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1599.17497682155</v>
       </c>
       <c r="D29" t="n">
-        <v>1321.719368529903</v>
+        <v>1321.719368529904</v>
       </c>
       <c r="E29" t="n">
-        <v>1016.741206246763</v>
+        <v>1016.741206246764</v>
       </c>
       <c r="F29" t="n">
-        <v>686.5653917722601</v>
+        <v>686.5653917722605</v>
       </c>
       <c r="G29" t="n">
-        <v>350.2877003237918</v>
+        <v>350.2877003237921</v>
       </c>
       <c r="H29" t="n">
-        <v>112.8746754114057</v>
+        <v>112.8746754114059</v>
       </c>
       <c r="I29" t="n">
         <v>73.99179512662064</v>
       </c>
       <c r="J29" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K29" t="n">
-        <v>666.0988071604023</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L29" t="n">
         <v>1218.912065406601</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N29" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O29" t="n">
         <v>3025.098749216837</v>
@@ -6488,13 +6488,13 @@
         <v>3699.589756331032</v>
       </c>
       <c r="S29" t="n">
-        <v>3624.184809142964</v>
+        <v>3624.184809142965</v>
       </c>
       <c r="T29" t="n">
-        <v>3490.195037725779</v>
+        <v>3490.19503772578</v>
       </c>
       <c r="U29" t="n">
-        <v>3317.313424786034</v>
+        <v>3317.313424786035</v>
       </c>
       <c r="V29" t="n">
         <v>3067.060627757568</v>
@@ -6503,7 +6503,7 @@
         <v>2795.102062802558</v>
       </c>
       <c r="X29" t="n">
-        <v>2502.446394856582</v>
+        <v>2502.446394856583</v>
       </c>
       <c r="Y29" t="n">
         <v>2193.117153195875</v>
@@ -6549,7 +6549,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N30" t="n">
         <v>1452.219619273623</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.5501890719627</v>
+        <v>392.6657443112979</v>
       </c>
       <c r="C31" t="n">
-        <v>481.4240964591599</v>
+        <v>304.5396516984952</v>
       </c>
       <c r="D31" t="n">
-        <v>412.1175473619284</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="E31" t="n">
-        <v>345.0145440946395</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="F31" t="n">
-        <v>278.9346869118333</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="G31" t="n">
-        <v>191.1379322223208</v>
+        <v>147.4363479117513</v>
       </c>
       <c r="H31" t="n">
-        <v>117.6933794371902</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I31" t="n">
         <v>73.99179512662064</v>
       </c>
       <c r="J31" t="n">
-        <v>135.6748811815029</v>
+        <v>135.674881181503</v>
       </c>
       <c r="K31" t="n">
-        <v>315.9247802949463</v>
+        <v>315.9247802949465</v>
       </c>
       <c r="L31" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135984</v>
       </c>
       <c r="M31" t="n">
-        <v>864.4313149506697</v>
+        <v>864.43131495067</v>
       </c>
       <c r="N31" t="n">
         <v>1149.456649304608</v>
       </c>
       <c r="O31" t="n">
-        <v>1402.75351421104</v>
+        <v>1402.753514211041</v>
       </c>
       <c r="P31" t="n">
-        <v>1607.403060327489</v>
+        <v>1607.40306032749</v>
       </c>
       <c r="Q31" t="n">
         <v>1690.023349265683</v>
@@ -6646,25 +6646,25 @@
         <v>1640.35547830019</v>
       </c>
       <c r="S31" t="n">
-        <v>1513.725283867699</v>
+        <v>1513.7252838677</v>
       </c>
       <c r="T31" t="n">
-        <v>1368.906177495168</v>
+        <v>1371.489631957628</v>
       </c>
       <c r="U31" t="n">
-        <v>1160.564091387952</v>
+        <v>1163.147545850412</v>
       </c>
       <c r="V31" t="n">
-        <v>986.6896934971699</v>
+        <v>989.2731479596291</v>
       </c>
       <c r="W31" t="n">
-        <v>957.5505129984372</v>
+        <v>780.6660682377727</v>
       </c>
       <c r="X31" t="n">
-        <v>810.371052415524</v>
+        <v>633.4866076548597</v>
       </c>
       <c r="Y31" t="n">
-        <v>670.3885635870981</v>
+        <v>493.5041188264333</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1832.32864302836</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.703979700557</v>
+        <v>1551.703979700559</v>
       </c>
       <c r="D32" t="n">
-        <v>1281.776134706414</v>
+        <v>1281.776134706416</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3257357207781</v>
+        <v>984.3257357207796</v>
       </c>
       <c r="F32" t="n">
-        <v>661.6776845437782</v>
+        <v>661.6776845437798</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9277563928135</v>
+        <v>332.9277563928151</v>
       </c>
       <c r="H32" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I32" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J32" t="n">
-        <v>260.3272768043864</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K32" t="n">
         <v>663.7943898244318</v>
@@ -6713,37 +6713,37 @@
         <v>2475.633127113789</v>
       </c>
       <c r="O32" t="n">
-        <v>2909.877882418312</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P32" t="n">
-        <v>3339.192928757606</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q32" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R32" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.491705641943</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U32" t="n">
-        <v>3224.67584788002</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V32" t="n">
-        <v>2981.950814149057</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W32" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X32" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y32" t="n">
-        <v>2130.590629479874</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I33" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J33" t="n">
         <v>190.3466296475458</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.551428653467</v>
+        <v>514.5514286534666</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381675</v>
       </c>
       <c r="D34" t="n">
-        <v>372.17431353844</v>
+        <v>372.1743135384395</v>
       </c>
       <c r="E34" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686543</v>
       </c>
       <c r="F34" t="n">
-        <v>254.0469796833522</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G34" t="n">
-        <v>173.7779882913434</v>
+        <v>173.7779882913429</v>
       </c>
       <c r="H34" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037158</v>
       </c>
       <c r="I34" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7484246534157</v>
+        <v>140.748424653415</v>
       </c>
       <c r="K34" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747415</v>
       </c>
       <c r="L34" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012767</v>
       </c>
       <c r="M34" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462315</v>
       </c>
       <c r="N34" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P34" t="n">
-        <v>1656.744368646702</v>
+        <v>1656.744368646701</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R34" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724788</v>
       </c>
       <c r="S34" t="n">
         <v>1585.500079589802</v>
       </c>
       <c r="T34" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514774</v>
       </c>
       <c r="U34" t="n">
-        <v>1247.394413705063</v>
+        <v>1247.394413705062</v>
       </c>
       <c r="V34" t="n">
         <v>1081.047779111783</v>
       </c>
       <c r="W34" t="n">
-        <v>879.9684626874307</v>
+        <v>879.96846268743</v>
       </c>
       <c r="X34" t="n">
-        <v>740.3167654020211</v>
+        <v>740.3167654020206</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710984</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1281.776134706414</v>
       </c>
       <c r="E35" t="n">
-        <v>984.3257357207776</v>
+        <v>984.3257357207781</v>
       </c>
       <c r="F35" t="n">
         <v>661.6776845437782</v>
@@ -6929,19 +6929,19 @@
         <v>332.9277563928135</v>
       </c>
       <c r="H35" t="n">
-        <v>103.0424947779315</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I35" t="n">
         <v>71.68737779065013</v>
       </c>
       <c r="J35" t="n">
-        <v>260.3272768043864</v>
+        <v>147.4108273418314</v>
       </c>
       <c r="K35" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618768</v>
       </c>
       <c r="L35" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M35" t="n">
         <v>1735.409009591388</v>
@@ -6962,19 +6962,19 @@
         <v>3584.368889532507</v>
       </c>
       <c r="S35" t="n">
-        <v>3516.491705641942</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T35" t="n">
-        <v>3390.029697522261</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U35" t="n">
-        <v>3224.675847880019</v>
+        <v>3224.67584788002</v>
       </c>
       <c r="V35" t="n">
         <v>2981.950814149057</v>
       </c>
       <c r="W35" t="n">
-        <v>2717.52001249155</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X35" t="n">
         <v>2432.392107843079</v>
@@ -7023,7 +7023,7 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M36" t="n">
-        <v>1251.258460284988</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N36" t="n">
         <v>1449.915201937652</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.5514286534665</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C37" t="n">
-        <v>433.9530993381675</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D37" t="n">
-        <v>372.1743135384396</v>
+        <v>372.17431353844</v>
       </c>
       <c r="E37" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F37" t="n">
-        <v>254.0469796833519</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G37" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H37" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I37" t="n">
         <v>71.68737779065013</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7484246534144</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K37" t="n">
-        <v>328.3762845747411</v>
+        <v>328.3762845747426</v>
       </c>
       <c r="L37" t="n">
-        <v>599.7892098012765</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M37" t="n">
-        <v>891.6387408462313</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N37" t="n">
-        <v>1184.042036008052</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.716861722368</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P37" t="n">
-        <v>1656.744368646701</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R37" t="n">
-        <v>1704.602510724788</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S37" t="n">
         <v>1585.500079589802</v>
       </c>
       <c r="T37" t="n">
-        <v>1448.208736514774</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U37" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
         <v>1081.047779111783</v>
       </c>
       <c r="W37" t="n">
-        <v>879.96846268743</v>
+        <v>879.9684626874306</v>
       </c>
       <c r="X37" t="n">
-        <v>740.3167654020206</v>
+        <v>740.316765402021</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.8620398710983</v>
+        <v>607.862039871099</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.328643028361</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C38" t="n">
-        <v>1551.703979700557</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D38" t="n">
         <v>1281.776134706415</v>
       </c>
       <c r="E38" t="n">
-        <v>984.3257357207785</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F38" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G38" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H38" t="n">
         <v>103.0424947779316</v>
@@ -7181,13 +7181,13 @@
         <v>1216.607648070631</v>
       </c>
       <c r="M38" t="n">
-        <v>1735.409009591389</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N38" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O38" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P38" t="n">
         <v>3339.192928757607</v>
@@ -7211,13 +7211,13 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W38" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X38" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y38" t="n">
-        <v>2130.590629479875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>514.551428653467</v>
+        <v>514.5514286534668</v>
       </c>
       <c r="C40" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381677</v>
       </c>
       <c r="D40" t="n">
-        <v>372.17431353844</v>
+        <v>372.1743135384397</v>
       </c>
       <c r="E40" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686544</v>
       </c>
       <c r="F40" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833518</v>
       </c>
       <c r="G40" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913429</v>
       </c>
       <c r="H40" t="n">
         <v>107.8611988037161</v>
@@ -7333,16 +7333,16 @@
         <v>140.7484246534157</v>
       </c>
       <c r="K40" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747423</v>
       </c>
       <c r="L40" t="n">
         <v>599.7892098012776</v>
       </c>
       <c r="M40" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462323</v>
       </c>
       <c r="N40" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O40" t="n">
         <v>1444.716861722369</v>
@@ -7351,7 +7351,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R40" t="n">
         <v>1704.602510724789</v>
@@ -7366,16 +7366,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V40" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W40" t="n">
-        <v>879.9684626874309</v>
+        <v>879.9684626874307</v>
       </c>
       <c r="X40" t="n">
-        <v>740.3167654020214</v>
+        <v>740.3167654020211</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.862039871099</v>
+        <v>607.8620398710988</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1832.328643028362</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.703979700559</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.776134706416</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E41" t="n">
-        <v>984.3257357207794</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F41" t="n">
-        <v>661.6776845437796</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G41" t="n">
         <v>332.9277563928143</v>
@@ -7409,22 +7409,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J41" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418323</v>
       </c>
       <c r="K41" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618777</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M41" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N41" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O41" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P41" t="n">
         <v>3339.192928757607</v>
@@ -7442,10 +7442,10 @@
         <v>3390.029697522263</v>
       </c>
       <c r="U41" t="n">
-        <v>3224.675847880022</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V41" t="n">
-        <v>2981.950814149059</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W41" t="n">
         <v>2717.520012491552</v>
@@ -7497,7 +7497,7 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M42" t="n">
-        <v>1251.258460284988</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N42" t="n">
         <v>1449.915201937652</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>514.5514286534668</v>
+        <v>514.5514286534667</v>
       </c>
       <c r="C43" t="n">
-        <v>433.9530993381677</v>
+        <v>433.9530993381675</v>
       </c>
       <c r="D43" t="n">
-        <v>372.1743135384397</v>
+        <v>372.1743135384396</v>
       </c>
       <c r="E43" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686543</v>
       </c>
       <c r="F43" t="n">
-        <v>254.0469796833518</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G43" t="n">
-        <v>173.777988291343</v>
+        <v>173.7779882913429</v>
       </c>
       <c r="H43" t="n">
-        <v>107.8611988037158</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I43" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534154</v>
       </c>
       <c r="K43" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747422</v>
       </c>
       <c r="L43" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012774</v>
       </c>
       <c r="M43" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462321</v>
       </c>
       <c r="N43" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O43" t="n">
         <v>1444.716861722369</v>
@@ -7588,7 +7588,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q43" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R43" t="n">
         <v>1704.602510724789</v>
@@ -7600,19 +7600,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U43" t="n">
-        <v>1247.394413705063</v>
+        <v>1247.394413705062</v>
       </c>
       <c r="V43" t="n">
         <v>1081.047779111783</v>
       </c>
       <c r="W43" t="n">
-        <v>879.9684626874306</v>
+        <v>879.9684626874305</v>
       </c>
       <c r="X43" t="n">
-        <v>740.316765402021</v>
+        <v>740.3167654020209</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.8620398710988</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
     <row r="44">
@@ -7628,31 +7628,31 @@
         <v>1551.703979700558</v>
       </c>
       <c r="D44" t="n">
-        <v>1281.776134706415</v>
+        <v>1281.776134706416</v>
       </c>
       <c r="E44" t="n">
-        <v>984.3257357207787</v>
+        <v>984.3257357207794</v>
       </c>
       <c r="F44" t="n">
-        <v>661.6776845437788</v>
+        <v>661.6776845437794</v>
       </c>
       <c r="G44" t="n">
-        <v>332.927756392814</v>
+        <v>332.9277563928147</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0424947779317</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I44" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J44" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418327</v>
       </c>
       <c r="K44" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618781</v>
       </c>
       <c r="L44" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M44" t="n">
         <v>1735.409009591389</v>
@@ -7725,25 +7725,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J45" t="n">
-        <v>190.3466296475458</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K45" t="n">
-        <v>519.7750339533557</v>
+        <v>139.2951974540072</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.136573819474</v>
+        <v>643.6567373201257</v>
       </c>
       <c r="M45" t="n">
-        <v>1251.258460284988</v>
+        <v>1284.20208678723</v>
       </c>
       <c r="N45" t="n">
-        <v>1449.915201937652</v>
+        <v>1957.407779040013</v>
       </c>
       <c r="O45" t="n">
-        <v>1999.351210690375</v>
+        <v>2506.843787792736</v>
       </c>
       <c r="P45" t="n">
-        <v>2423.318979171212</v>
+        <v>2615.533415320035</v>
       </c>
       <c r="Q45" t="n">
         <v>2654.03243523168</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>514.5514286534656</v>
+        <v>514.5514286534668</v>
       </c>
       <c r="C46" t="n">
-        <v>433.9530993381664</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D46" t="n">
-        <v>372.1743135384384</v>
+        <v>372.1743135384398</v>
       </c>
       <c r="E46" t="n">
-        <v>312.599073568653</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F46" t="n">
-        <v>254.0469796833522</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G46" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H46" t="n">
         <v>107.8611988037161</v>
@@ -7807,22 +7807,22 @@
         <v>140.7484246534157</v>
       </c>
       <c r="K46" t="n">
-        <v>328.3762845747423</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L46" t="n">
-        <v>599.7892098012775</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M46" t="n">
-        <v>891.6387408462322</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N46" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O46" t="n">
         <v>1444.716861722369</v>
       </c>
       <c r="P46" t="n">
-        <v>1656.744368646702</v>
+        <v>1656.744368646701</v>
       </c>
       <c r="Q46" t="n">
         <v>1746.742618392778</v>
@@ -7831,10 +7831,10 @@
         <v>1704.602510724789</v>
       </c>
       <c r="S46" t="n">
-        <v>1585.500079589801</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T46" t="n">
-        <v>1448.208736514774</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U46" t="n">
         <v>1247.394413705062</v>
@@ -7843,13 +7843,13 @@
         <v>1081.047779111783</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9684626874297</v>
+        <v>879.9684626874302</v>
       </c>
       <c r="X46" t="n">
-        <v>740.3167654020201</v>
+        <v>740.3167654020207</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.8620398710975</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>285.6096848041354</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>432.0033716197614</v>
+        <v>404.007403399629</v>
       </c>
       <c r="N2" t="n">
-        <v>431.0702019890796</v>
+        <v>431.0702019890791</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>340.2115181723628</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>343.7911723145065</v>
       </c>
       <c r="N3" t="n">
-        <v>145.3005527872833</v>
+        <v>332.9988504758214</v>
       </c>
       <c r="O3" t="n">
-        <v>344.2533828369332</v>
+        <v>156.5550851483933</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>439.5120753598707</v>
+        <v>442.5553054053006</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>273.7013896911317</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>350.7634519579021</v>
       </c>
       <c r="M6" t="n">
-        <v>354.3431061000461</v>
+        <v>354.3431061000462</v>
       </c>
       <c r="N6" t="n">
-        <v>165.9780795993497</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>354.8053166224722</v>
+        <v>247.3281256102888</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720764</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>378.0407240669654</v>
+        <v>441.9679254493649</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263522</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>15.92129162592732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714833</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>258.1828939084842</v>
+        <v>418.9459514760944</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627458</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298247</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>333.4658964092704</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>77.83812039511977</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>48.10560617263522</v>
       </c>
       <c r="N27" t="n">
-        <v>48.10560617263508</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>48.10560617263522</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>48.10560617263508</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10361,10 +10361,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>266.7431616035992</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>207.7416885123371</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292722</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>335.4565138336858</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263548</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>48.10560617263531</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>335.4565138336872</v>
+        <v>335.4565138336867</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292812</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>323.2899047528387</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>48.10560617263548</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>48.10560617263531</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292857</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>335.4565138336872</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>48.10560617263548</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>15.92129162592738</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>345.1318430009064</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.7349969716103</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.35499212378923</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.847987856643</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>166.0472696552625</v>
       </c>
       <c r="V11" t="n">
-        <v>307.6112097000338</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>329.0999199473119</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.6909314118362</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>147.1057723285267</v>
       </c>
       <c r="D13" t="n">
-        <v>90.97085424677331</v>
+        <v>128.4744242481112</v>
       </c>
       <c r="E13" t="n">
-        <v>126.2929138764681</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>146.7797277844693</v>
       </c>
       <c r="H13" t="n">
-        <v>132.5710478991315</v>
+        <v>131.0477058117302</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1255091093159</v>
+        <v>103.1255091093158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.0321328976902</v>
+        <v>109.0321328976901</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2248331300175</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.2318559506575</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.9965945537268</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5686066189361</v>
+        <v>205.568606618936</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.4436045819937</v>
+        <v>198.4436045819936</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>345.1318430009065</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>361.7893213021607</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.7758551758357</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>98.3549921237892</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>349.5900519083679</v>
+        <v>160.0064114510386</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.17974429346155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4744242481112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.292913876468</v>
+        <v>37.50425774499676</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.2799992528302</v>
       </c>
       <c r="G16" t="n">
-        <v>146.7797277844693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.94139427566228</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1255091093158</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.0321328976902</v>
       </c>
       <c r="S16" t="n">
-        <v>185.2248331300175</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>203.2318559506576</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>266.1196058879959</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.9965945537269</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.3819495664899</v>
       </c>
       <c r="X16" t="n">
-        <v>205.568606618936</v>
+        <v>205.5686066189361</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.4436045819937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.24483168667474</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>68.61348360625927</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.81490493795962</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.3093277427274</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.509601401603661</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.2448316866748</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>66.43197323461601</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>65.41905861097808</v>
       </c>
       <c r="G22" t="n">
-        <v>86.91878714261742</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>43.26456846746382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.55761991783433</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>31.96555425380966</v>
       </c>
       <c r="C25" t="n">
-        <v>87.2448316866748</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>66.43197323461614</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.9964153096039</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>145.707665977084</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>45.82218838529773</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.43197323461602</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>65.4190586109781</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>177.6732202308923</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>66.43197323461598</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.41905861097806</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.2645684674638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.557619917833765</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>177.6732202308925</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>159986.8044730503</v>
       </c>
       <c r="F2" t="n">
-        <v>159986.8044730503</v>
+        <v>159986.8044730502</v>
       </c>
       <c r="G2" t="n">
         <v>183774.9628302172</v>
       </c>
       <c r="H2" t="n">
-        <v>183774.962830217</v>
+        <v>183774.9628302172</v>
       </c>
       <c r="I2" t="n">
-        <v>183774.9628302168</v>
+        <v>183774.9628302172</v>
       </c>
       <c r="J2" t="n">
         <v>183774.9628302171</v>
       </c>
       <c r="K2" t="n">
-        <v>183774.962830217</v>
+        <v>183774.9628302171</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="M2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194639</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194639</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67579.94518950599</v>
+        <v>67579.9451895058</v>
       </c>
       <c r="C3" t="n">
-        <v>3409.020486720694</v>
+        <v>3409.020486720907</v>
       </c>
       <c r="D3" t="n">
-        <v>8947.764463406462</v>
+        <v>8947.764463406427</v>
       </c>
       <c r="E3" t="n">
-        <v>697105.7816779215</v>
+        <v>697105.7816779214</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47888.75251348157</v>
+        <v>47888.75251348167</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.21933364525</v>
+        <v>68875.21933364516</v>
       </c>
       <c r="K3" t="n">
-        <v>2715.730094516656</v>
+        <v>2715.730094516796</v>
       </c>
       <c r="L3" t="n">
-        <v>53850.74104510443</v>
+        <v>53850.7410451045</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.4165637117</v>
+        <v>170426.4165637114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16112.83901608098</v>
+        <v>16112.83901608099</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360762.6249699168</v>
+        <v>360762.6249699169</v>
       </c>
       <c r="C4" t="n">
         <v>359065.678863344</v>
@@ -26424,16 +26424,16 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>93296.11857650825</v>
+        <v>93296.11857650826</v>
       </c>
       <c r="F4" t="n">
-        <v>93296.11857650823</v>
+        <v>93296.11857650816</v>
       </c>
       <c r="G4" t="n">
         <v>153788.3361621245</v>
       </c>
       <c r="H4" t="n">
-        <v>153788.3361621244</v>
+        <v>153788.3361621245</v>
       </c>
       <c r="I4" t="n">
         <v>153788.3361621244</v>
@@ -26448,16 +26448,16 @@
         <v>159263.0340515218</v>
       </c>
       <c r="M4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="N4" t="n">
         <v>159263.0340515217</v>
       </c>
       <c r="O4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="P4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45888.35401426331</v>
+        <v>45888.35401426328</v>
       </c>
       <c r="C5" t="n">
-        <v>46529.91158842409</v>
+        <v>46529.9115884241</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70864.78111265517</v>
+        <v>70864.78111265514</v>
       </c>
       <c r="F5" t="n">
-        <v>70864.78111265515</v>
+        <v>70864.78111265512</v>
       </c>
       <c r="G5" t="n">
         <v>75897.230531475</v>
@@ -26488,19 +26488,19 @@
         <v>75897.230531475</v>
       </c>
       <c r="I5" t="n">
+        <v>75897.23053147498</v>
+      </c>
+      <c r="J5" t="n">
         <v>75897.230531475</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75897.23053147498</v>
       </c>
       <c r="K5" t="n">
         <v>75897.230531475</v>
       </c>
       <c r="L5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="M5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346865</v>
       </c>
       <c r="N5" t="n">
         <v>74772.39637346867</v>
@@ -26509,7 +26509,7 @@
         <v>74772.39637346867</v>
       </c>
       <c r="P5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346868</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-289496.5259542222</v>
       </c>
       <c r="C6" t="n">
-        <v>-224270.212719025</v>
+        <v>-224270.2127190252</v>
       </c>
       <c r="D6" t="n">
-        <v>-226927.9022846136</v>
+        <v>-226927.9022846137</v>
       </c>
       <c r="E6" t="n">
-        <v>-701279.8768940347</v>
+        <v>-701554.8501578836</v>
       </c>
       <c r="F6" t="n">
-        <v>-4174.095216112983</v>
+        <v>-4449.068479962006</v>
       </c>
       <c r="G6" t="n">
-        <v>-93799.35637686383</v>
+        <v>-93810.01677007777</v>
       </c>
       <c r="H6" t="n">
-        <v>-45910.60386338232</v>
+        <v>-45921.26425659617</v>
       </c>
       <c r="I6" t="n">
-        <v>-45910.60386338261</v>
+        <v>-45921.26425659601</v>
       </c>
       <c r="J6" t="n">
-        <v>-114785.8231970276</v>
+        <v>-114796.4835902414</v>
       </c>
       <c r="K6" t="n">
-        <v>-48626.33395789911</v>
+        <v>-48636.99435111306</v>
       </c>
       <c r="L6" t="n">
-        <v>-103151.773250631</v>
+        <v>-103151.7732506312</v>
       </c>
       <c r="M6" t="n">
-        <v>-219727.4487692383</v>
+        <v>-219727.448769238</v>
       </c>
       <c r="N6" t="n">
-        <v>-49301.0322055265</v>
+        <v>-49301.03220552656</v>
       </c>
       <c r="O6" t="n">
-        <v>-65413.87122160759</v>
+        <v>-65413.87122160754</v>
       </c>
       <c r="P6" t="n">
-        <v>-49301.03220552656</v>
+        <v>-49301.03220552675</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="F2" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="G2" t="n">
+        <v>80.00198941195313</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80.00198941195316</v>
+      </c>
+      <c r="I2" t="n">
         <v>80.00198941195309</v>
       </c>
-      <c r="H2" t="n">
-        <v>80.00198941195303</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80.00198941195303</v>
-      </c>
       <c r="J2" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="K2" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="L2" t="n">
         <v>87.45447507648173</v>
       </c>
       <c r="M2" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="O2" t="n">
         <v>87.4544750764817</v>
       </c>
-      <c r="O2" t="n">
-        <v>87.45447507648169</v>
-      </c>
       <c r="P2" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="3">
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.6571383924887</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="C4" t="n">
-        <v>212.2090721780278</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="D4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827588</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="J4" t="n">
-        <v>924.897439082758</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="K4" t="n">
         <v>924.8974390827581</v>
       </c>
       <c r="L4" t="n">
-        <v>896.0922223831268</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="M4" t="n">
         <v>896.0922223831267</v>
       </c>
       <c r="N4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="O4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="P4" t="n">
         <v>896.092222383127</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.86094064185195</v>
+        <v>59.86094064185208</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>20.14104877010123</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67.31342630638062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.14104877010124</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67.31342630638053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.14104877010122</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.6571383924887</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5519337855391</v>
+        <v>10.55193378553976</v>
       </c>
       <c r="D4" t="n">
-        <v>28.80521669963127</v>
+        <v>28.80521669963116</v>
       </c>
       <c r="E4" t="n">
-        <v>683.8831502050997</v>
+        <v>683.883150205099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>201.6571383924885</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="K4" t="n">
-        <v>10.55193378553921</v>
+        <v>10.55193378553976</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050996</v>
+        <v>683.8831502050988</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.86094064185195</v>
+        <v>59.86094064185208</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.14104877010124</v>
+        <v>20.14104877010123</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>201.6571383924887</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="K4" t="n">
-        <v>10.5519337855391</v>
+        <v>10.55193378553976</v>
       </c>
       <c r="L4" t="n">
-        <v>28.80521669963127</v>
+        <v>28.80521669963116</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050997</v>
+        <v>683.883150205099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>163.6157533785189</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>205.2189073492233</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>213.6455991226464</v>
-      </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>199.097920703956</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,10 +27436,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>126.0951200776468</v>
       </c>
       <c r="W2" t="n">
-        <v>148.6493750808388</v>
+        <v>147.5838303249249</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25.20035460810379</v>
+        <v>7.290521317235601</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872718</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>239.9388627150773</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.6669735636837</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0936653371073</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.88677738610346</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>184.2672065121635</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.5220285004413</v>
+        <v>157.5220285004411</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>174.0288664780257</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>33.16952991479698</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>17.29962048814772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>164.3376445463981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>333.5151654886528</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>165.5744871400381</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.20216475343526</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="C11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="D11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="E11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="F11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="G11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="H11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="I11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="T11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="U11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="V11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="W11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="X11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="C13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="D13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="E13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="F13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="G13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="H13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="I13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="J13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="K13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="L13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="M13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="N13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="O13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="P13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="R13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="S13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="T13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="U13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="V13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="W13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="X13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.14104877010109</v>
+        <v>20.14104877010117</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="C14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="D14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="E14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="F14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="G14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="H14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="I14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="T14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="U14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="V14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="W14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="X14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="C16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="D16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="E16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="F16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="G16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="H16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="I16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="J16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="K16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="L16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="M16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="N16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="O16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="P16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="R16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="S16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="T16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="U16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="V16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="W16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="X16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.14104877010114</v>
+        <v>20.14104877010105</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="C17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="D17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="E17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="F17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="G17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="H17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="I17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="T17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="U17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="V17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="W17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="X17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="Y17" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="C19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="D19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="E19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="F19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="G19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="H19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="I19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="J19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="K19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="L19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="M19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="N19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="O19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="P19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="R19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="S19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="T19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="U19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="V19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="W19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="X19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="C20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="D20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="E20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="F20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="G20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195282</v>
       </c>
       <c r="H20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="I20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="T20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="U20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="V20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="W20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="X20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="C22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="D22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="E22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="F22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="G22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="H22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="I22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="J22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="K22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="L22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="M22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="N22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="O22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="P22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="R22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="S22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="T22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="U22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="V22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="W22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="X22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195316</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W23" t="n">
-        <v>80.00198941195453</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="K25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="L25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="M25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="N25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="O25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="P25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="R25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="S25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.00198941195303</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="C26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="D26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="E26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="F26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="G26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="H26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="I26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="T26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="U26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="V26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="W26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="X26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="C28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="D28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="E28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="F28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="G28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="H28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="I28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="J28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="K28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="L28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="M28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="N28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="O28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="P28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="R28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="S28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="T28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="U28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="V28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="W28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="X28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.00198941195318</v>
+        <v>80.00198941195315</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="C29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="D29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="E29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="F29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="G29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="H29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="I29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="T29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="U29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="V29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="W29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="X29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="C31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="D31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="E31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="F31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="G31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="H31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="I31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="J31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="K31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="L31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="M31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="N31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="O31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="P31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="R31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="S31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="T31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="U31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="V31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="W31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="X31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195319</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45447507648041</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.45447507648177</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764822</v>
       </c>
       <c r="T41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.45447507648169</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.84326983414812</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>201.6571383924887</v>
+        <v>173.6611701723563</v>
       </c>
       <c r="N2" t="n">
-        <v>201.6571383924887</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>201.6571383924887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="N3" t="n">
-        <v>13.95884070394996</v>
+        <v>201.6571383924882</v>
       </c>
       <c r="O3" t="n">
-        <v>201.6571383924887</v>
+        <v>13.95884070394881</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>209.165842132598</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>43.60317826944499</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="M6" t="n">
-        <v>212.2090721780278</v>
+        <v>212.2090721780279</v>
       </c>
       <c r="N6" t="n">
-        <v>34.63636751601639</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>212.2090721780278</v>
+        <v>104.7318811658444</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391302</v>
+        <v>190.5453525391275</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
@@ -35495,19 +35495,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>559.3511648291924</v>
+        <v>623.2783662115919</v>
       </c>
       <c r="N12" t="n">
         <v>200.6633754067319</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269927</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P12" t="n">
         <v>428.2502711927642</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.445206888332095</v>
+        <v>2.445206888332169</v>
       </c>
       <c r="K13" t="n">
-        <v>122.2096645232423</v>
+        <v>122.2096645232424</v>
       </c>
       <c r="L13" t="n">
-        <v>206.8410436194125</v>
+        <v>206.8410436194126</v>
       </c>
       <c r="M13" t="n">
-        <v>227.4840797996343</v>
+        <v>227.4840797996344</v>
       </c>
       <c r="N13" t="n">
-        <v>228.0434374934387</v>
+        <v>228.0434374934388</v>
       </c>
       <c r="O13" t="n">
-        <v>195.9944784555545</v>
+        <v>195.9944784555546</v>
       </c>
       <c r="P13" t="n">
-        <v>146.8557726070866</v>
+        <v>146.8557726070867</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.59389666945451</v>
+        <v>23.59389666945458</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391275</v>
       </c>
       <c r="K14" t="n">
         <v>407.5425384040863</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348622</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P15" t="n">
-        <v>125.7087941787544</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.445206888332137</v>
+        <v>2.445206888332052</v>
       </c>
       <c r="K16" t="n">
         <v>122.2096645232423</v>
       </c>
       <c r="L16" t="n">
-        <v>206.8410436194126</v>
+        <v>206.8410436194125</v>
       </c>
       <c r="M16" t="n">
-        <v>227.4840797996344</v>
+        <v>227.4840797996343</v>
       </c>
       <c r="N16" t="n">
-        <v>228.0434374934388</v>
+        <v>228.0434374934387</v>
       </c>
       <c r="O16" t="n">
-        <v>195.9944784555545</v>
+        <v>195.9944784555544</v>
       </c>
       <c r="P16" t="n">
-        <v>146.8557726070866</v>
+        <v>146.8557726070865</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.59389666945455</v>
+        <v>23.59389666945447</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588837</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312128</v>
@@ -35966,13 +35966,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M18" t="n">
         <v>181.310440762227</v>
       </c>
       <c r="N18" t="n">
-        <v>458.8462693152161</v>
+        <v>619.6093268828263</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269927</v>
@@ -35981,7 +35981,7 @@
         <v>428.2502711927642</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>62.30614753018409</v>
+        <v>62.30614753018413</v>
       </c>
       <c r="K19" t="n">
         <v>182.0706051650943</v>
@@ -36048,7 +36048,7 @@
         <v>266.7019842612646</v>
       </c>
       <c r="M19" t="n">
-        <v>287.3450204414863</v>
+        <v>287.3450204414864</v>
       </c>
       <c r="N19" t="n">
         <v>287.9043781352908</v>
@@ -36060,7 +36060,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.45483731130651</v>
+        <v>83.45483731130655</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233109</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588831</v>
@@ -36203,22 +36203,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>138.615755571408</v>
+        <v>472.0816519806784</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N21" t="n">
         <v>680.0057497502855</v>
       </c>
       <c r="O21" t="n">
-        <v>238.961668545383</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927642</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>62.30614753018403</v>
+        <v>62.30614753018416</v>
       </c>
       <c r="K22" t="n">
-        <v>182.0706051650942</v>
+        <v>182.0706051650944</v>
       </c>
       <c r="L22" t="n">
-        <v>266.7019842612645</v>
+        <v>266.7019842612646</v>
       </c>
       <c r="M22" t="n">
-        <v>287.3450204414863</v>
+        <v>287.3450204414864</v>
       </c>
       <c r="N22" t="n">
-        <v>287.9043781352907</v>
+        <v>287.9043781352908</v>
       </c>
       <c r="O22" t="n">
-        <v>255.8554190974064</v>
+        <v>255.8554190974066</v>
       </c>
       <c r="P22" t="n">
-        <v>206.7167132489385</v>
+        <v>206.7167132489386</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.45483731130645</v>
+        <v>83.45483731130658</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588833</v>
       </c>
       <c r="Q23" t="n">
         <v>247.6524856312128</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.30614753018403</v>
+        <v>62.30614753018409</v>
       </c>
       <c r="K25" t="n">
-        <v>182.0706051650942</v>
+        <v>182.0706051650943</v>
       </c>
       <c r="L25" t="n">
-        <v>266.7019842612645</v>
+        <v>266.7019842612646</v>
       </c>
       <c r="M25" t="n">
         <v>287.3450204414863</v>
       </c>
       <c r="N25" t="n">
-        <v>287.9043781352907</v>
+        <v>287.9043781352908</v>
       </c>
       <c r="O25" t="n">
-        <v>255.8554190974064</v>
+        <v>255.8554190974065</v>
       </c>
       <c r="P25" t="n">
-        <v>206.7167132489385</v>
+        <v>206.7167132489386</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.45483731130645</v>
+        <v>83.45483731130651</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.310440762227</v>
+        <v>229.4160469348622</v>
       </c>
       <c r="N27" t="n">
-        <v>248.768981579367</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269927</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30614753018418</v>
+        <v>62.30614753018415</v>
       </c>
       <c r="K28" t="n">
-        <v>182.0706051650944</v>
+        <v>182.0706051650943</v>
       </c>
       <c r="L28" t="n">
         <v>266.7019842612646</v>
@@ -36765,13 +36765,13 @@
         <v>287.9043781352908</v>
       </c>
       <c r="O28" t="n">
-        <v>255.8554190974066</v>
+        <v>255.8554190974065</v>
       </c>
       <c r="P28" t="n">
-        <v>206.7167132489387</v>
+        <v>206.7167132489386</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.45483731130659</v>
+        <v>83.45483731130656</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>229.4160469348622</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N30" t="n">
-        <v>200.6633754067319</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269927</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.30614753018415</v>
+        <v>62.30614753018419</v>
       </c>
       <c r="K31" t="n">
-        <v>182.0706051650943</v>
+        <v>182.0706051650944</v>
       </c>
       <c r="L31" t="n">
-        <v>266.7019842612646</v>
+        <v>266.7019842612647</v>
       </c>
       <c r="M31" t="n">
         <v>287.3450204414864</v>
@@ -37002,13 +37002,13 @@
         <v>287.9043781352908</v>
       </c>
       <c r="O31" t="n">
-        <v>255.8554190974065</v>
+        <v>255.8554190974066</v>
       </c>
       <c r="P31" t="n">
-        <v>206.7167132489386</v>
+        <v>206.7167132489387</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.45483731130656</v>
+        <v>83.4548373113066</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>438.6310659641643</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>433.6515619588831</v>
+        <v>319.5945422997376</v>
       </c>
       <c r="Q32" t="n">
         <v>247.6524856312128</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998103</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
@@ -37312,7 +37312,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M35" t="n">
-        <v>524.0417793138954</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
@@ -37391,10 +37391,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348625</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N36" t="n">
-        <v>200.6633754067319</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269927</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.75863319471141</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K37" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257931</v>
       </c>
       <c r="M37" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N37" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O37" t="n">
-        <v>263.3079047619352</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P37" t="n">
-        <v>214.1691989134673</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.90732297583519</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M38" t="n">
-        <v>524.0417793138968</v>
+        <v>524.0417793138963</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.7586331947127</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K40" t="n">
         <v>189.5230908296229</v>
@@ -37707,10 +37707,10 @@
         <v>274.1544699257931</v>
       </c>
       <c r="M40" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N40" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O40" t="n">
         <v>263.3079047619351</v>
@@ -37719,7 +37719,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.90732297583511</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998193</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37789,7 +37789,7 @@
         <v>638.0987989730421</v>
       </c>
       <c r="N41" t="n">
-        <v>519.5870894922148</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37865,10 +37865,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>229.4160469348625</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N42" t="n">
-        <v>200.6633754067319</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269927</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.75863319471269</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K43" t="n">
         <v>189.5230908296229</v>
@@ -37944,7 +37944,7 @@
         <v>274.1544699257931</v>
       </c>
       <c r="M43" t="n">
-        <v>294.7975061060149</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N43" t="n">
         <v>295.3568637998193</v>
@@ -37956,7 +37956,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.9073229758351</v>
+        <v>90.90732297583511</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998238</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38023,7 +38023,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M44" t="n">
-        <v>524.0417793138968</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N44" t="n">
         <v>633.6441091513602</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584804</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>229.4160469348625</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.6633754067319</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.0438950105733</v>
+        <v>38.88789890065158</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.75863319471264</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K46" t="n">
-        <v>189.5230908296228</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1544699257931</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M46" t="n">
-        <v>294.7975061060149</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N46" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O46" t="n">
-        <v>263.307904761935</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P46" t="n">
-        <v>214.1691989134671</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.90732297583506</v>
+        <v>90.90732297583514</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
